--- a/championData.xlsx
+++ b/championData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ChampionPickerApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6A2B4403-705A-431F-B5ED-CB7E5E4CA7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB016347-FB68-4D0A-AD26-9A7F9A236E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="championData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
   <si>
     <t>Aatrox</t>
   </si>
@@ -548,12 +548,27 @@
   </si>
   <si>
     <t>Question Weightage</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Gif file names</t>
+  </si>
+  <si>
+    <t>Range champion.gif</t>
+  </si>
+  <si>
+    <t>support role.gif</t>
+  </si>
+  <si>
+    <t>square.gif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,7 +720,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,13 +902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1155,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1153,23 +1174,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1240,9 +1267,7 @@
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="thin">
           <color theme="0" tint="-0.249977111117893"/>
@@ -1255,9 +1280,7 @@
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </top>
@@ -1289,9 +1312,7 @@
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </top>
@@ -1323,7 +1344,9 @@
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
         <top style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </top>
@@ -1347,6 +1370,276 @@
         <bottom style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1378,15 +1671,33 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </bottom>
@@ -1402,291 +1713,7 @@
           <color theme="0" tint="-0.249977111117893"/>
         </right>
         <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1703,20 +1730,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:L165" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A4:L166" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="12">
-    <tableColumn id="1" name="Column1" headerRowDxfId="8" dataDxfId="25"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="9" dataDxfId="24"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="10" dataDxfId="23"/>
-    <tableColumn id="10" name="Column10" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="4" name="Column4" headerRowDxfId="11" dataDxfId="22"/>
-    <tableColumn id="5" name="Column5" headerRowDxfId="12" dataDxfId="21"/>
-    <tableColumn id="6" name="Column6" headerRowDxfId="13" dataDxfId="20"/>
-    <tableColumn id="12" name="Column11" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="7" name="Column7" headerRowDxfId="14" dataDxfId="19"/>
-    <tableColumn id="9" name="Column9" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="13" name="Column12" headerRowDxfId="1" dataDxfId="0"/>
-    <tableColumn id="8" name="Column8" headerRowDxfId="15" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column11" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column12" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2018,14 +2045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,183 +2061,185 @@
     <col min="2" max="12" width="24.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="12">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-      <c r="K2" s="13">
-        <v>3</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3</v>
+      </c>
+      <c r="L3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
         <v>3</v>
@@ -2219,118 +2248,118 @@
         <v>4</v>
       </c>
       <c r="L5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="4">
         <v>5</v>
@@ -2338,57 +2367,57 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
@@ -2406,129 +2435,129 @@
         <v>3</v>
       </c>
       <c r="K10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="4">
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>5</v>
@@ -2540,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -2552,217 +2581,217 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4">
         <v>3</v>
       </c>
       <c r="L19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -2771,71 +2800,71 @@
         <v>5</v>
       </c>
       <c r="F20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2">
         <v>4</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
       </c>
       <c r="L21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2844,25 +2873,25 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="4">
         <v>4</v>
@@ -2870,110 +2899,110 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -2984,7 +3013,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -2996,19 +3025,19 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
         <v>3</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -3017,12 +3046,12 @@
         <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3034,19 +3063,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -3055,42 +3084,42 @@
         <v>1</v>
       </c>
       <c r="L27" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4">
         <v>1</v>
@@ -3098,48 +3127,48 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2">
         <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -3148,19 +3177,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
         <v>3</v>
       </c>
       <c r="G30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2">
         <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="4">
         <v>2</v>
@@ -3169,39 +3198,39 @@
         <v>1</v>
       </c>
       <c r="L30" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2">
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="4">
         <v>1</v>
@@ -3212,25 +3241,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
@@ -3239,36 +3268,36 @@
         <v>1</v>
       </c>
       <c r="J32" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2">
         <v>5</v>
       </c>
       <c r="F33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
         <v>2</v>
@@ -3277,68 +3306,68 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="4">
         <v>2</v>
       </c>
       <c r="K34" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L34" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2">
         <v>4</v>
@@ -3347,103 +3376,103 @@
         <v>5</v>
       </c>
       <c r="H35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="4">
         <v>2</v>
       </c>
       <c r="K35" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2">
         <v>2</v>
       </c>
       <c r="H37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
         <v>2</v>
       </c>
       <c r="L37" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3452,51 +3481,51 @@
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -3508,56 +3537,56 @@
         <v>1</v>
       </c>
       <c r="K39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="4">
         <v>2</v>
       </c>
       <c r="L40" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3566,33 +3595,33 @@
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
         <v>4</v>
       </c>
       <c r="G41" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2">
         <v>3</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -3604,83 +3633,83 @@
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="2">
         <v>5</v>
       </c>
       <c r="H42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
       </c>
       <c r="K42" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" s="4">
         <v>1</v>
       </c>
       <c r="L43" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -3692,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4">
         <v>2</v>
@@ -3701,12 +3730,12 @@
         <v>1</v>
       </c>
       <c r="L44" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -3721,54 +3750,54 @@
         <v>2</v>
       </c>
       <c r="F45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2">
         <v>4</v>
       </c>
       <c r="J45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="4">
         <v>1</v>
       </c>
       <c r="L45" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -3777,36 +3806,36 @@
         <v>1</v>
       </c>
       <c r="L46" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2">
         <v>5</v>
       </c>
       <c r="D47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -3820,51 +3849,51 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
       </c>
       <c r="D48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
       </c>
       <c r="K48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -3876,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" s="2">
         <v>3</v>
@@ -3896,83 +3925,83 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2">
         <v>3</v>
       </c>
       <c r="I50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L50" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2">
         <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L51" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2">
         <v>5</v>
@@ -3984,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2">
         <v>5</v>
@@ -3993,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
@@ -4002,15 +4031,15 @@
         <v>5</v>
       </c>
       <c r="K52" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="2">
         <v>5</v>
@@ -4028,10 +4057,10 @@
         <v>5</v>
       </c>
       <c r="G53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
@@ -4048,19 +4077,19 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2">
         <v>5</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54" s="2">
         <v>5</v>
@@ -4069,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="2">
         <v>1</v>
@@ -4078,94 +4107,94 @@
         <v>5</v>
       </c>
       <c r="K54" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L54" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
       </c>
       <c r="E55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K55" s="4">
         <v>1</v>
       </c>
       <c r="L55" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2">
         <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2">
         <v>5</v>
       </c>
       <c r="F56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
       </c>
       <c r="I56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K56" s="4">
         <v>1</v>
       </c>
       <c r="L56" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -4180,27 +4209,27 @@
         <v>4</v>
       </c>
       <c r="G57" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" s="4">
         <v>1</v>
       </c>
       <c r="L57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -4212,74 +4241,74 @@
         <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" s="4">
         <v>1</v>
       </c>
       <c r="L58" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
       <c r="E59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="2">
         <v>1</v>
       </c>
       <c r="J59" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K59" s="4">
         <v>1</v>
       </c>
       <c r="L59" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
@@ -4288,159 +4317,159 @@
         <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2">
         <v>4</v>
       </c>
       <c r="G60" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" s="4">
         <v>4</v>
       </c>
       <c r="K60" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="2">
         <v>4</v>
       </c>
       <c r="G61" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K61" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="2">
         <v>4</v>
       </c>
       <c r="G62" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2">
         <v>1</v>
       </c>
       <c r="J62" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K62" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L62" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
       </c>
       <c r="E63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" s="2">
         <v>1</v>
       </c>
       <c r="J63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="2">
         <v>3</v>
@@ -4449,103 +4478,103 @@
         <v>4</v>
       </c>
       <c r="H64" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L64" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J65" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K65" s="4">
         <v>1</v>
       </c>
       <c r="L65" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J66" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L66" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
@@ -4554,36 +4583,36 @@
         <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I67" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J67" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K67" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L67" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
@@ -4592,25 +4621,25 @@
         <v>1</v>
       </c>
       <c r="E68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G68" s="2">
         <v>5</v>
       </c>
       <c r="H68" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I68" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K68" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L68" s="4">
         <v>1</v>
@@ -4618,75 +4647,75 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F69" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69" s="4">
         <v>1</v>
       </c>
       <c r="K69" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L69" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F70" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J70" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="4">
         <v>5</v>
@@ -4694,28 +4723,28 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2">
         <v>4</v>
       </c>
       <c r="H71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -4724,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="K71" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" s="4">
         <v>5</v>
@@ -4732,25 +4761,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" s="2">
         <v>3</v>
@@ -4759,56 +4788,56 @@
         <v>1</v>
       </c>
       <c r="J72" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K72" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
         <v>5</v>
       </c>
       <c r="C73" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
       </c>
       <c r="E73" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" s="2">
         <v>1</v>
       </c>
       <c r="J73" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2">
         <v>5</v>
@@ -4823,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -4835,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="J74" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K74" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L74" s="4">
         <v>2</v>
@@ -4846,48 +4875,48 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2">
         <v>5</v>
       </c>
       <c r="F75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J75" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K75" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L75" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2">
         <v>4</v>
@@ -4899,36 +4928,36 @@
         <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J76" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K76" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
@@ -4937,36 +4966,36 @@
         <v>5</v>
       </c>
       <c r="F77" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J77" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
@@ -4975,57 +5004,57 @@
         <v>5</v>
       </c>
       <c r="F78" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J78" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K78" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79" s="2">
         <v>1</v>
       </c>
       <c r="J79" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K79" s="4">
         <v>1</v>
@@ -5036,25 +5065,25 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
         <v>5</v>
       </c>
       <c r="C80" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
       </c>
       <c r="E80" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
         <v>1</v>
@@ -5063,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K80" s="4">
         <v>1</v>
@@ -5074,22 +5103,22 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -5098,36 +5127,36 @@
         <v>1</v>
       </c>
       <c r="I81" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J81" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
       </c>
       <c r="L81" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E82" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
@@ -5136,13 +5165,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J82" s="4">
         <v>1</v>
       </c>
       <c r="K82" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" s="4">
         <v>3</v>
@@ -5150,7 +5179,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2">
         <v>5</v>
@@ -5165,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
@@ -5180,68 +5209,68 @@
         <v>1</v>
       </c>
       <c r="K83" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2">
         <v>5</v>
       </c>
       <c r="F84" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
       </c>
       <c r="I84" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
       </c>
       <c r="K84" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2">
         <v>5</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -5250,65 +5279,65 @@
         <v>1</v>
       </c>
       <c r="I85" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
       </c>
       <c r="K85" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L85" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F86" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I86" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J86" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K86" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L86" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
@@ -5317,22 +5346,22 @@
         <v>3</v>
       </c>
       <c r="F87" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I87" s="2">
         <v>1</v>
       </c>
       <c r="J87" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K87" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L87" s="4">
         <v>1</v>
@@ -5340,28 +5369,28 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2">
         <v>5</v>
       </c>
       <c r="C88" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
       </c>
       <c r="E88" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" s="2">
         <v>3</v>
       </c>
       <c r="G88" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H88" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="2">
         <v>1</v>
@@ -5370,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="K88" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88" s="4">
         <v>1</v>
@@ -5378,25 +5407,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E89" s="2">
         <v>2</v>
       </c>
       <c r="F89" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G89" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H89" s="2">
         <v>3</v>
@@ -5405,45 +5434,45 @@
         <v>1</v>
       </c>
       <c r="J89" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K89" s="4">
         <v>1</v>
       </c>
       <c r="L89" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F90" s="2">
         <v>4</v>
       </c>
       <c r="G90" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H90" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
       </c>
       <c r="J90" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K90" s="4">
         <v>1</v>
@@ -5454,7 +5483,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -5466,19 +5495,19 @@
         <v>1</v>
       </c>
       <c r="E91" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G91" s="2">
         <v>3</v>
       </c>
       <c r="H91" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I91" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" s="4">
         <v>2</v>
@@ -5487,103 +5516,103 @@
         <v>1</v>
       </c>
       <c r="L91" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="2">
         <v>3</v>
       </c>
       <c r="H92" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J92" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K93" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
       <c r="E94" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
@@ -5592,13 +5621,13 @@
         <v>1</v>
       </c>
       <c r="I94" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J94" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K94" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L94" s="4">
         <v>5</v>
@@ -5606,7 +5635,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -5618,25 +5647,25 @@
         <v>1</v>
       </c>
       <c r="E95" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I95" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L95" s="4">
         <v>5</v>
@@ -5644,13 +5673,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
       </c>
       <c r="C96" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -5659,22 +5688,22 @@
         <v>4</v>
       </c>
       <c r="F96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G96" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96" s="4">
         <v>5</v>
@@ -5682,7 +5711,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
@@ -5691,159 +5720,159 @@
         <v>5</v>
       </c>
       <c r="D97" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E97" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H97" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J97" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K97" s="4">
         <v>3</v>
       </c>
       <c r="L97" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E98" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G98" s="2">
         <v>5</v>
       </c>
       <c r="H98" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
       </c>
       <c r="J98" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L98" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
       <c r="E99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="2">
         <v>4</v>
       </c>
       <c r="G99" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H99" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
       </c>
       <c r="J99" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C100" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="2">
         <v>3</v>
       </c>
       <c r="H100" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K100" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L100" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
       </c>
       <c r="C101" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E101" s="2">
         <v>5</v>
@@ -5852,19 +5881,19 @@
         <v>1</v>
       </c>
       <c r="G101" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" s="2">
         <v>1</v>
       </c>
       <c r="I101" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J101" s="4">
         <v>1</v>
       </c>
       <c r="K101" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L101" s="4">
         <v>5</v>
@@ -5872,31 +5901,31 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
       </c>
       <c r="E102" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
@@ -5905,53 +5934,53 @@
         <v>1</v>
       </c>
       <c r="L102" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
       </c>
       <c r="C103" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
       </c>
       <c r="K103" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L103" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
@@ -5966,13 +5995,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" s="2">
         <v>1</v>
       </c>
       <c r="I104" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J104" s="4">
         <v>1</v>
@@ -5986,31 +6015,31 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D105" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F105" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>
@@ -6019,24 +6048,24 @@
         <v>5</v>
       </c>
       <c r="L105" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2">
         <v>1</v>
       </c>
       <c r="E106" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106" s="2">
         <v>3</v>
@@ -6045,92 +6074,92 @@
         <v>3</v>
       </c>
       <c r="H106" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J106" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L106" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H107" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="4">
         <v>1</v>
       </c>
       <c r="L107" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2">
         <v>1</v>
       </c>
       <c r="E108" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" s="2">
         <v>4</v>
       </c>
       <c r="G108" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H108" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I108" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" s="4">
         <v>4</v>
@@ -6138,136 +6167,136 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C109" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
       <c r="E109" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G109" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" s="4">
         <v>2</v>
       </c>
       <c r="K109" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L109" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E110" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G110" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H110" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K110" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C111" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E111" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I111" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J111" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K111" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L111" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E112" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G112" s="2">
         <v>3</v>
@@ -6276,39 +6305,39 @@
         <v>1</v>
       </c>
       <c r="I112" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J112" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K112" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L112" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2">
         <v>5</v>
       </c>
       <c r="C113" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2">
         <v>5</v>
       </c>
       <c r="E113" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F113" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G113" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" s="2">
         <v>1</v>
@@ -6317,33 +6346,33 @@
         <v>1</v>
       </c>
       <c r="J113" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K113" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L113" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E114" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="2">
         <v>2</v>
@@ -6352,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J114" s="4">
         <v>1</v>
@@ -6366,107 +6395,107 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115" s="2">
         <v>1</v>
       </c>
       <c r="E115" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F115" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H115" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J115" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L115" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F116" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G116" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H116" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J116" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
       </c>
       <c r="L116" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117" s="2">
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" s="2">
         <v>2</v>
       </c>
       <c r="H117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J117" s="4">
         <v>1</v>
@@ -6475,36 +6504,36 @@
         <v>1</v>
       </c>
       <c r="L117" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2">
         <v>2</v>
       </c>
       <c r="G118" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J118" s="4">
         <v>1</v>
@@ -6513,12 +6542,12 @@
         <v>1</v>
       </c>
       <c r="L118" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
@@ -6530,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="E119" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F119" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H119" s="2">
         <v>1</v>
@@ -6548,115 +6577,115 @@
         <v>1</v>
       </c>
       <c r="K119" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L119" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E120" s="2">
         <v>5</v>
       </c>
       <c r="F120" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G120" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120" s="2">
         <v>1</v>
       </c>
       <c r="I120" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K120" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L120" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C121" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F121" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G121" s="2">
         <v>3</v>
       </c>
       <c r="H121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K121" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2">
         <v>5</v>
       </c>
       <c r="D122" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F122" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J122" s="4">
         <v>1</v>
@@ -6665,12 +6694,12 @@
         <v>1</v>
       </c>
       <c r="L122" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2">
         <v>5</v>
@@ -6700,30 +6729,30 @@
         <v>1</v>
       </c>
       <c r="K123" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2">
         <v>5</v>
       </c>
       <c r="C124" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D124" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F124" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -6732,112 +6761,112 @@
         <v>1</v>
       </c>
       <c r="I124" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" s="4">
         <v>1</v>
       </c>
       <c r="K124" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C125" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" s="2">
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G125" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H125" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J125" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L125" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E126" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G126" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K126" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L126" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" s="2">
         <v>3</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -6846,13 +6875,13 @@
         <v>1</v>
       </c>
       <c r="I127" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J127" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K127" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L127" s="4">
         <v>3</v>
@@ -6860,22 +6889,22 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F128" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -6884,226 +6913,226 @@
         <v>1</v>
       </c>
       <c r="I128" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J128" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K128" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L128" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C129" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" s="2">
         <v>1</v>
       </c>
       <c r="E129" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F129" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G129" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H129" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I129" s="2">
         <v>1</v>
       </c>
       <c r="J129" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K129" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L129" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
       </c>
       <c r="C130" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E130" s="2">
         <v>4</v>
       </c>
       <c r="F130" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H130" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I130" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J130" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K130" s="4">
         <v>1</v>
       </c>
       <c r="L130" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E131" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F131" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G131" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="2">
         <v>1</v>
       </c>
       <c r="I131" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J131" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2">
         <v>5</v>
       </c>
       <c r="C132" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E132" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F132" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G132" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" s="2">
         <v>1</v>
       </c>
       <c r="I132" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J132" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L132" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2">
         <v>5</v>
       </c>
       <c r="C133" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D133" s="2">
         <v>5</v>
       </c>
       <c r="E133" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F133" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G133" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J133" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K133" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L133" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C134" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E134" s="2">
         <v>5</v>
       </c>
       <c r="F134" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G134" s="2">
         <v>3</v>
@@ -7112,80 +7141,80 @@
         <v>2</v>
       </c>
       <c r="I134" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J134" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K134" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L134" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
       </c>
       <c r="C135" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F135" s="2">
         <v>3</v>
       </c>
       <c r="G135" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H135" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I135" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
       </c>
       <c r="L135" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2">
         <v>1</v>
       </c>
       <c r="E136" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G136" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H136" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I136" s="2">
         <v>1</v>
@@ -7194,33 +7223,33 @@
         <v>3</v>
       </c>
       <c r="K136" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L136" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2">
         <v>5</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E137" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F137" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G137" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" s="2">
         <v>3</v>
@@ -7229,77 +7258,77 @@
         <v>1</v>
       </c>
       <c r="J137" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K137" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L137" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C138" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D138" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E138" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F138" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G138" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H138" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J138" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
       </c>
       <c r="E139" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" s="2">
         <v>3</v>
       </c>
       <c r="G139" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H139" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" s="2">
         <v>4</v>
@@ -7316,22 +7345,22 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2">
         <v>2</v>
       </c>
       <c r="D140" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E140" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F140" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
@@ -7340,42 +7369,42 @@
         <v>1</v>
       </c>
       <c r="I140" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J140" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K140" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L140" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2">
         <v>5</v>
       </c>
       <c r="C141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="2">
         <v>5</v>
       </c>
       <c r="E141" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F141" s="2">
         <v>5</v>
       </c>
       <c r="G141" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" s="2">
         <v>1</v>
@@ -7384,65 +7413,65 @@
         <v>5</v>
       </c>
       <c r="K141" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L141" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2">
         <v>5</v>
       </c>
       <c r="C142" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F142" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G142" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" s="2">
         <v>1</v>
       </c>
       <c r="J142" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
       </c>
       <c r="L142" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2">
         <v>5</v>
       </c>
       <c r="C143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" s="2">
         <v>3</v>
       </c>
       <c r="E143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F143" s="2">
         <v>4</v>
@@ -7463,21 +7492,21 @@
         <v>1</v>
       </c>
       <c r="L143" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2">
         <v>5</v>
       </c>
       <c r="C144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" s="2">
         <v>4</v>
@@ -7486,33 +7515,33 @@
         <v>4</v>
       </c>
       <c r="G144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I144" s="2">
         <v>1</v>
       </c>
       <c r="J144" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K144" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L144" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C145" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145" s="2">
         <v>1</v>
@@ -7521,22 +7550,22 @@
         <v>4</v>
       </c>
       <c r="F145" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I145" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J145" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K145" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L145" s="4">
         <v>4</v>
@@ -7544,48 +7573,48 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2">
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146" s="2">
         <v>1</v>
       </c>
       <c r="E146" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146" s="2">
         <v>3</v>
       </c>
       <c r="G146" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J146" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K146" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L146" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2">
         <v>2</v>
@@ -7594,25 +7623,25 @@
         <v>1</v>
       </c>
       <c r="E147" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G147" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H147" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K147" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L147" s="4">
         <v>2</v>
@@ -7620,69 +7649,69 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2">
         <v>5</v>
       </c>
       <c r="C148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
       </c>
       <c r="E148" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F148" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G148" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H148" s="2">
         <v>1</v>
       </c>
       <c r="I148" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K148" s="4">
         <v>1</v>
       </c>
       <c r="L148" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149" s="2">
         <v>1</v>
       </c>
       <c r="E149" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F149" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G149" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J149" s="4">
         <v>1</v>
@@ -7696,13 +7725,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2">
         <v>1</v>
       </c>
       <c r="C150" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" s="2">
         <v>1</v>
@@ -7711,16 +7740,16 @@
         <v>4</v>
       </c>
       <c r="F150" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G150" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150" s="2">
         <v>2</v>
       </c>
       <c r="I150" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J150" s="4">
         <v>1</v>
@@ -7729,106 +7758,106 @@
         <v>1</v>
       </c>
       <c r="L150" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2">
         <v>1</v>
       </c>
       <c r="C151" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151" s="2">
         <v>1</v>
       </c>
       <c r="E151" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" s="2">
         <v>3</v>
       </c>
       <c r="G151" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H151" s="2">
         <v>2</v>
       </c>
       <c r="I151" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J151" s="4">
         <v>1</v>
       </c>
       <c r="K151" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L151" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E152" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F152" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G152" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K152" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L152" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2">
         <v>5</v>
       </c>
       <c r="C153" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E153" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F153" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G153" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" s="2">
         <v>1</v>
@@ -7837,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="J153" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K153" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L153" s="4">
         <v>1</v>
@@ -7848,16 +7877,16 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C154" s="2">
         <v>3</v>
       </c>
       <c r="D154" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154" s="2">
         <v>5</v>
@@ -7869,62 +7898,62 @@
         <v>1</v>
       </c>
       <c r="H154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J154" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K154" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L154" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2">
         <v>1</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155" s="2">
         <v>1</v>
       </c>
       <c r="E155" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F155" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G155" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J155" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K155" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L155" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
@@ -7942,7 +7971,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H156" s="2">
         <v>3</v>
@@ -7957,18 +7986,18 @@
         <v>1</v>
       </c>
       <c r="L156" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2">
         <v>1</v>
       </c>
       <c r="C157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -7977,45 +8006,45 @@
         <v>2</v>
       </c>
       <c r="F157" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G157" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J157" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K157" s="4">
         <v>1</v>
       </c>
       <c r="L157" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E158" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F158" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G158" s="2">
         <v>1</v>
@@ -8024,106 +8053,106 @@
         <v>1</v>
       </c>
       <c r="I158" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J158" s="4">
         <v>1</v>
       </c>
       <c r="K158" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L158" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D159" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E159" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F159" s="2">
         <v>1</v>
       </c>
       <c r="G159" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J159" s="4">
         <v>1</v>
       </c>
       <c r="K159" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L159" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2">
         <v>1</v>
       </c>
       <c r="C160" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2">
         <v>1</v>
       </c>
       <c r="E160" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F160" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G160" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H160" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I160" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J160" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K160" s="4">
         <v>1</v>
       </c>
       <c r="L160" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C161" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
@@ -8135,24 +8164,24 @@
         <v>4</v>
       </c>
       <c r="H161" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I161" s="2">
         <v>1</v>
       </c>
       <c r="J161" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K161" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L161" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2">
         <v>5</v>
@@ -8161,28 +8190,28 @@
         <v>2</v>
       </c>
       <c r="D162" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E162" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F162" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G162" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H162" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" s="2">
         <v>1</v>
       </c>
       <c r="J162" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K162" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L162" s="4">
         <v>1</v>
@@ -8190,25 +8219,25 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2">
         <v>5</v>
       </c>
       <c r="C163" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F163" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G163" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163" s="2">
         <v>1</v>
@@ -8217,93 +8246,131 @@
         <v>1</v>
       </c>
       <c r="J163" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K163" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L163" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" s="2">
+        <v>5</v>
+      </c>
+      <c r="C164" s="2">
+        <v>5</v>
+      </c>
+      <c r="D164" s="2">
+        <v>4</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3</v>
+      </c>
+      <c r="F164" s="2">
+        <v>2</v>
+      </c>
+      <c r="G164" s="2">
+        <v>3</v>
+      </c>
+      <c r="H164" s="2">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2">
+        <v>1</v>
+      </c>
+      <c r="J164" s="4">
+        <v>1</v>
+      </c>
+      <c r="K164" s="4">
+        <v>4</v>
+      </c>
+      <c r="L164" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="2">
-        <v>5</v>
-      </c>
-      <c r="C164" s="2">
-        <v>2</v>
-      </c>
-      <c r="D164" s="2">
-        <v>1</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="2">
-        <v>4</v>
-      </c>
-      <c r="G164" s="2">
-        <v>1</v>
-      </c>
-      <c r="H164" s="2">
-        <v>2</v>
-      </c>
-      <c r="I164" s="2">
-        <v>1</v>
-      </c>
-      <c r="J164" s="4">
-        <v>3</v>
-      </c>
-      <c r="K164" s="4">
-        <v>1</v>
-      </c>
-      <c r="L164" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+      <c r="B165" s="2">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="2">
+        <v>4</v>
+      </c>
+      <c r="G165" s="2">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2">
+        <v>2</v>
+      </c>
+      <c r="I165" s="2">
+        <v>1</v>
+      </c>
+      <c r="J165" s="4">
+        <v>3</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1</v>
+      </c>
+      <c r="L165" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B165" s="6">
-        <v>5</v>
-      </c>
-      <c r="C165" s="6">
-        <v>3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>5</v>
-      </c>
-      <c r="E165" s="6">
-        <v>3</v>
-      </c>
-      <c r="F165" s="6">
-        <v>3</v>
-      </c>
-      <c r="G165" s="6">
-        <v>1</v>
-      </c>
-      <c r="H165" s="6">
-        <v>1</v>
-      </c>
-      <c r="I165" s="6">
-        <v>1</v>
-      </c>
-      <c r="J165" s="7">
-        <v>2</v>
-      </c>
-      <c r="K165" s="7">
-        <v>1</v>
-      </c>
-      <c r="L165" s="7">
+      <c r="B166" s="6">
+        <v>5</v>
+      </c>
+      <c r="C166" s="6">
+        <v>3</v>
+      </c>
+      <c r="D166" s="6">
+        <v>5</v>
+      </c>
+      <c r="E166" s="6">
+        <v>3</v>
+      </c>
+      <c r="F166" s="6">
+        <v>3</v>
+      </c>
+      <c r="G166" s="6">
+        <v>1</v>
+      </c>
+      <c r="H166" s="6">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6">
+        <v>1</v>
+      </c>
+      <c r="J166" s="7">
+        <v>2</v>
+      </c>
+      <c r="K166" s="7">
+        <v>1</v>
+      </c>
+      <c r="L166" s="7">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/championData.xlsx
+++ b/championData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ChampionPickerApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890D303-01FD-4D52-9EF3-CCD2BF5CE217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774F90BA-8815-4D4C-806F-78D90D0D4170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,9 +1422,7 @@
         <left style="thin">
           <color rgb="FFBFBFBF"/>
         </left>
-        <right style="thin">
-          <color rgb="FFBFBFBF"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FFBFBFBF"/>
         </top>
@@ -1456,7 +1454,9 @@
         <left style="thin">
           <color rgb="FFBFBFBF"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color rgb="FFBFBFBF"/>
+        </right>
         <top style="thin">
           <color rgb="FFBFBFBF"/>
         </top>
@@ -1544,9 +1544,9 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
   </tableColumns>
@@ -1755,10 +1755,10 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="M133" s="13">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
